--- a/biology/Médecine/Le_Médecin_(mensuel)/Le_Médecin_(mensuel).xlsx
+++ b/biology/Médecine/Le_Médecin_(mensuel)/Le_Médecin_(mensuel).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_(mensuel)</t>
+          <t>Le_Médecin_(mensuel)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Médecin est un périodique du Groupement médical corporatif rattaché à l'Union des corporations françaises publié de 1926 à 1934, traitant de médecine et du corps médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_(mensuel)</t>
+          <t>Le_Médecin_(mensuel)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Guérin, docteur interne des hôpitaux de Paris, responsable parisien de l'Action française et auteur d'une thèse « L’État contre le médecin, vers une renaissance corporative » soutenue à Paris en 1928[1],[2] et dédiée à Charles Maurras, est un des rédacteurs du journal Le Médecin[3].
-Le docteur Jean François Louis Fanton d'Andon (1869-1959) figure aussi parmi les rédacteurs réguliers[4].
-Le journal est ouvertement maurrassien et relaie notamment les banquets médicaux d'Action française[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Guérin, docteur interne des hôpitaux de Paris, responsable parisien de l'Action française et auteur d'une thèse « L’État contre le médecin, vers une renaissance corporative » soutenue à Paris en 1928, et dédiée à Charles Maurras, est un des rédacteurs du journal Le Médecin.
+Le docteur Jean François Louis Fanton d'Andon (1869-1959) figure aussi parmi les rédacteurs réguliers.
+Le journal est ouvertement maurrassien et relaie notamment les banquets médicaux d'Action française.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_(mensuel)</t>
+          <t>Le_Médecin_(mensuel)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Journalistes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean François Louis Fanton d'Andon
